--- a/result/compare_result/compare_result_0729/result-20%.xlsx
+++ b/result/compare_result/compare_result_0729/result-20%.xlsx
@@ -24,13 +24,13 @@
     <t>未迁移</t>
   </si>
   <si>
-    <t>单次迁移</t>
-  </si>
-  <si>
-    <t>传递式迁移（未调参）</t>
-  </si>
-  <si>
-    <t>传递式迁移（调参后总迭代为100）</t>
+    <t>单次迁移（大亚组样本量为10%）</t>
+  </si>
+  <si>
+    <t>单次迁移（大亚组样本量为100%）</t>
+  </si>
+  <si>
+    <t>传递式迁移（总迭代为100）</t>
   </si>
   <si>
     <t>Drg0</t>
@@ -98,12 +98,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,12 +113,102 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -127,19 +217,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,113 +232,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,13 +265,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,169 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,17 +459,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,6 +492,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -516,20 +527,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,168 +556,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -717,10 +710,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1074,13 +1067,14 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="29.125" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1096,7 +1090,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1104,340 +1098,340 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>0.917</v>
       </c>
       <c r="C2" s="2">
-        <v>0.91</v>
+        <v>0.626</v>
       </c>
       <c r="D2" s="2">
-        <v>0.912</v>
+        <v>0.933</v>
       </c>
       <c r="E2" s="2">
-        <v>0.905</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.636</v>
       </c>
       <c r="C3" s="2">
-        <v>0.63</v>
+        <v>0.594</v>
       </c>
       <c r="D3" s="2">
-        <v>0.636</v>
+        <v>0.633</v>
       </c>
       <c r="E3" s="2">
-        <v>0.617</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.823</v>
       </c>
       <c r="C4" s="2">
-        <v>0.714</v>
+        <v>0.621</v>
       </c>
       <c r="D4" s="2">
-        <v>0.728</v>
+        <v>0.705</v>
       </c>
       <c r="E4" s="2">
-        <v>0.843</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.599</v>
       </c>
       <c r="C5" s="2">
-        <v>0.661</v>
+        <v>0.623</v>
       </c>
       <c r="D5" s="2">
-        <v>0.647</v>
+        <v>0.586</v>
       </c>
       <c r="E5" s="2">
-        <v>0.603</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.59</v>
       </c>
       <c r="C6" s="2">
-        <v>0.685</v>
+        <v>0.643</v>
       </c>
       <c r="D6" s="2">
-        <v>0.678</v>
+        <v>0.689</v>
       </c>
       <c r="E6" s="2">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.825</v>
       </c>
       <c r="C7" s="2">
-        <v>0.863</v>
+        <v>0.686</v>
       </c>
       <c r="D7" s="2">
-        <v>0.81</v>
+        <v>0.804</v>
       </c>
       <c r="E7" s="2">
-        <v>0.727</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0.773</v>
       </c>
       <c r="C8" s="2">
-        <v>0.82</v>
+        <v>0.634</v>
       </c>
       <c r="D8" s="2">
-        <v>0.781</v>
+        <v>0.798</v>
       </c>
       <c r="E8" s="2">
-        <v>0.762</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>0.813</v>
       </c>
       <c r="C9" s="2">
-        <v>0.824</v>
+        <v>0.643</v>
       </c>
       <c r="D9" s="2">
-        <v>0.775</v>
+        <v>0.813</v>
       </c>
       <c r="E9" s="2">
-        <v>0.802</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>0.765</v>
       </c>
       <c r="C10" s="2">
-        <v>0.813</v>
+        <v>0.63</v>
       </c>
       <c r="D10" s="2">
-        <v>0.761</v>
+        <v>0.818</v>
       </c>
       <c r="E10" s="2">
-        <v>0.806</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0.556</v>
       </c>
       <c r="C11" s="2">
-        <v>0.614</v>
+        <v>0.6</v>
       </c>
       <c r="D11" s="2">
-        <v>0.582</v>
+        <v>0.58</v>
       </c>
       <c r="E11" s="2">
-        <v>0.586</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>0.635</v>
       </c>
       <c r="C12" s="2">
-        <v>0.657</v>
+        <v>0.666</v>
       </c>
       <c r="D12" s="2">
-        <v>0.648</v>
+        <v>0.663</v>
       </c>
       <c r="E12" s="2">
-        <v>0.667</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>0.731</v>
       </c>
       <c r="C13" s="2">
-        <v>0.738</v>
+        <v>0.657</v>
       </c>
       <c r="D13" s="2">
-        <v>0.699</v>
+        <v>0.692</v>
       </c>
       <c r="E13" s="2">
-        <v>0.739</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>0.604</v>
       </c>
       <c r="C14" s="2">
-        <v>0.692</v>
+        <v>0.553</v>
       </c>
       <c r="D14" s="2">
-        <v>0.643</v>
+        <v>0.653</v>
       </c>
       <c r="E14" s="2">
-        <v>0.686</v>
+        <v>0.567</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>0.811</v>
       </c>
       <c r="C15" s="2">
-        <v>0.839</v>
+        <v>0.603</v>
       </c>
       <c r="D15" s="2">
-        <v>0.816</v>
+        <v>0.826</v>
       </c>
       <c r="E15" s="2">
-        <v>0.823</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>0.569</v>
       </c>
       <c r="C16" s="2">
-        <v>0.692</v>
+        <v>0.654</v>
       </c>
       <c r="D16" s="2">
-        <v>0.671</v>
+        <v>0.666</v>
       </c>
       <c r="E16" s="2">
-        <v>0.717</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>0.82</v>
       </c>
       <c r="C17" s="2">
-        <v>0.852</v>
+        <v>0.619</v>
       </c>
       <c r="D17" s="2">
-        <v>0.838</v>
+        <v>0.847</v>
       </c>
       <c r="E17" s="2">
-        <v>0.841</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>0.617</v>
       </c>
       <c r="C18" s="2">
-        <v>0.69</v>
+        <v>0.627</v>
       </c>
       <c r="D18" s="2">
-        <v>0.667</v>
+        <v>0.695</v>
       </c>
       <c r="E18" s="2">
-        <v>0.665</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>0.519</v>
       </c>
       <c r="C19" s="2">
-        <v>0.624</v>
+        <v>0.658</v>
       </c>
       <c r="D19" s="2">
-        <v>0.622</v>
+        <v>0.654</v>
       </c>
       <c r="E19" s="2">
-        <v>0.645</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>0.651</v>
       </c>
       <c r="C20" s="2">
-        <v>0.717</v>
+        <v>0.619</v>
       </c>
       <c r="D20" s="2">
         <v>0.702</v>
       </c>
       <c r="E20" s="2">
-        <v>0.692</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>0.654</v>
       </c>
       <c r="C21" s="2">
-        <v>0.706</v>
+        <v>0.646</v>
       </c>
       <c r="D21" s="2">
-        <v>0.701</v>
+        <v>0.686</v>
       </c>
       <c r="E21" s="2">
-        <v>0.697</v>
+        <v>0.679</v>
       </c>
     </row>
   </sheetData>

--- a/result/compare_result/compare_result_0729/result-20%.xlsx
+++ b/result/compare_result/compare_result_0729/result-20%.xlsx
@@ -30,7 +30,7 @@
     <t>单次迁移（大亚组样本量为100%）</t>
   </si>
   <si>
-    <t>传递式迁移（总迭代为100）</t>
+    <t>传递式迁移（总迭代为100，，大亚组样本量和小亚组样本量都为10%）</t>
   </si>
   <si>
     <t>Drg0</t>
@@ -100,8 +100,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -112,8 +112,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,45 +143,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,14 +167,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,22 +220,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,25 +242,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,67 +265,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,115 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,8 +462,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,7 +487,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,35 +524,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +547,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,141 +576,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1067,14 +1070,14 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="27.625" customWidth="1"/>
     <col min="4" max="4" width="29.125" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="5" max="5" width="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1107,8 +1110,8 @@
       <c r="D2" s="2">
         <v>0.933</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.902</v>
+      <c r="E2" s="3">
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1124,8 +1127,8 @@
       <c r="D3" s="2">
         <v>0.633</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.614</v>
+      <c r="E3" s="3">
+        <v>0.672</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1141,8 +1144,8 @@
       <c r="D4" s="2">
         <v>0.705</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.866</v>
+      <c r="E4" s="3">
+        <v>0.842</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1158,8 +1161,8 @@
       <c r="D5" s="2">
         <v>0.586</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.622</v>
+      <c r="E5" s="3">
+        <v>0.612</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1175,8 +1178,8 @@
       <c r="D6" s="2">
         <v>0.689</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.624</v>
+      <c r="E6" s="3">
+        <v>0.635</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1192,8 +1195,8 @@
       <c r="D7" s="2">
         <v>0.804</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.787</v>
+      <c r="E7" s="3">
+        <v>0.776</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1209,8 +1212,8 @@
       <c r="D8" s="2">
         <v>0.798</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.8</v>
+      <c r="E8" s="3">
+        <v>0.751</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1226,7 +1229,7 @@
       <c r="D9" s="2">
         <v>0.813</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>0.789</v>
       </c>
     </row>
@@ -1243,8 +1246,8 @@
       <c r="D10" s="2">
         <v>0.818</v>
       </c>
-      <c r="E10" s="2">
-        <v>0.77</v>
+      <c r="E10" s="3">
+        <v>0.735</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1260,7 +1263,7 @@
       <c r="D11" s="2">
         <v>0.58</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>0.58</v>
       </c>
     </row>
@@ -1277,8 +1280,8 @@
       <c r="D12" s="2">
         <v>0.663</v>
       </c>
-      <c r="E12" s="2">
-        <v>0.67</v>
+      <c r="E12" s="3">
+        <v>0.681</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1294,8 +1297,8 @@
       <c r="D13" s="2">
         <v>0.692</v>
       </c>
-      <c r="E13" s="2">
-        <v>0.715</v>
+      <c r="E13" s="3">
+        <v>0.701</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1311,8 +1314,8 @@
       <c r="D14" s="2">
         <v>0.653</v>
       </c>
-      <c r="E14" s="2">
-        <v>0.567</v>
+      <c r="E14" s="3">
+        <v>0.665</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1328,8 +1331,8 @@
       <c r="D15" s="2">
         <v>0.826</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.804</v>
+      <c r="E15" s="3">
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1345,8 +1348,8 @@
       <c r="D16" s="2">
         <v>0.666</v>
       </c>
-      <c r="E16" s="2">
-        <v>0.616</v>
+      <c r="E16" s="3">
+        <v>0.611</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1362,8 +1365,8 @@
       <c r="D17" s="2">
         <v>0.847</v>
       </c>
-      <c r="E17" s="2">
-        <v>0.834</v>
+      <c r="E17" s="3">
+        <v>0.822</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1379,8 +1382,8 @@
       <c r="D18" s="2">
         <v>0.695</v>
       </c>
-      <c r="E18" s="2">
-        <v>0.645</v>
+      <c r="E18" s="3">
+        <v>0.639</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1396,8 +1399,8 @@
       <c r="D19" s="2">
         <v>0.654</v>
       </c>
-      <c r="E19" s="2">
-        <v>0.633</v>
+      <c r="E19" s="3">
+        <v>0.595</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1413,8 +1416,8 @@
       <c r="D20" s="2">
         <v>0.702</v>
       </c>
-      <c r="E20" s="2">
-        <v>0.659</v>
+      <c r="E20" s="3">
+        <v>0.661</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1430,8 +1433,8 @@
       <c r="D21" s="2">
         <v>0.686</v>
       </c>
-      <c r="E21" s="2">
-        <v>0.679</v>
+      <c r="E21" s="3">
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>

--- a/result/compare_result/compare_result_0729/result-20%.xlsx
+++ b/result/compare_result/compare_result_0729/result-20%.xlsx
@@ -24,7 +24,7 @@
     <t>未迁移</t>
   </si>
   <si>
-    <t>单次迁移（大亚组样本量为10%）</t>
+    <t>单次迁移（大亚组样本量为20%）</t>
   </si>
   <si>
     <t>单次迁移（大亚组样本量为100%）</t>
@@ -99,9 +99,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -112,24 +112,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,17 +128,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,84 +210,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,175 +265,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +456,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,30 +527,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,30 +556,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1105,10 +1105,10 @@
         <v>0.917</v>
       </c>
       <c r="C2" s="2">
-        <v>0.626</v>
+        <v>0.859</v>
       </c>
       <c r="D2" s="2">
-        <v>0.933</v>
+        <v>0.901</v>
       </c>
       <c r="E2" s="3">
         <v>0.875</v>
@@ -1122,10 +1122,10 @@
         <v>0.636</v>
       </c>
       <c r="C3" s="2">
-        <v>0.594</v>
+        <v>0.622</v>
       </c>
       <c r="D3" s="2">
-        <v>0.633</v>
+        <v>0.647</v>
       </c>
       <c r="E3" s="3">
         <v>0.672</v>
@@ -1139,10 +1139,10 @@
         <v>0.823</v>
       </c>
       <c r="C4" s="2">
-        <v>0.621</v>
+        <v>0.664</v>
       </c>
       <c r="D4" s="2">
-        <v>0.705</v>
+        <v>0.666</v>
       </c>
       <c r="E4" s="3">
         <v>0.842</v>
@@ -1156,10 +1156,10 @@
         <v>0.599</v>
       </c>
       <c r="C5" s="2">
-        <v>0.623</v>
+        <v>0.625</v>
       </c>
       <c r="D5" s="2">
-        <v>0.586</v>
+        <v>0.582</v>
       </c>
       <c r="E5" s="3">
         <v>0.612</v>
@@ -1173,10 +1173,10 @@
         <v>0.59</v>
       </c>
       <c r="C6" s="2">
-        <v>0.643</v>
+        <v>0.612</v>
       </c>
       <c r="D6" s="2">
-        <v>0.689</v>
+        <v>0.654</v>
       </c>
       <c r="E6" s="3">
         <v>0.635</v>
@@ -1190,10 +1190,10 @@
         <v>0.825</v>
       </c>
       <c r="C7" s="2">
-        <v>0.686</v>
+        <v>0.779</v>
       </c>
       <c r="D7" s="2">
-        <v>0.804</v>
+        <v>0.853</v>
       </c>
       <c r="E7" s="3">
         <v>0.776</v>
@@ -1207,10 +1207,10 @@
         <v>0.773</v>
       </c>
       <c r="C8" s="2">
-        <v>0.634</v>
+        <v>0.75</v>
       </c>
       <c r="D8" s="2">
-        <v>0.798</v>
+        <v>0.771</v>
       </c>
       <c r="E8" s="3">
         <v>0.751</v>
@@ -1224,10 +1224,10 @@
         <v>0.813</v>
       </c>
       <c r="C9" s="2">
-        <v>0.643</v>
+        <v>0.781</v>
       </c>
       <c r="D9" s="2">
-        <v>0.813</v>
+        <v>0.797</v>
       </c>
       <c r="E9" s="3">
         <v>0.789</v>
@@ -1241,10 +1241,10 @@
         <v>0.765</v>
       </c>
       <c r="C10" s="2">
-        <v>0.63</v>
+        <v>0.768</v>
       </c>
       <c r="D10" s="2">
-        <v>0.818</v>
+        <v>0.775</v>
       </c>
       <c r="E10" s="3">
         <v>0.735</v>
@@ -1258,10 +1258,10 @@
         <v>0.556</v>
       </c>
       <c r="C11" s="2">
-        <v>0.6</v>
+        <v>0.548</v>
       </c>
       <c r="D11" s="2">
-        <v>0.58</v>
+        <v>0.521</v>
       </c>
       <c r="E11" s="3">
         <v>0.58</v>
@@ -1275,10 +1275,10 @@
         <v>0.635</v>
       </c>
       <c r="C12" s="2">
-        <v>0.666</v>
+        <v>0.669</v>
       </c>
       <c r="D12" s="2">
-        <v>0.663</v>
+        <v>0.632</v>
       </c>
       <c r="E12" s="3">
         <v>0.681</v>
@@ -1292,10 +1292,10 @@
         <v>0.731</v>
       </c>
       <c r="C13" s="2">
-        <v>0.657</v>
+        <v>0.737</v>
       </c>
       <c r="D13" s="2">
-        <v>0.692</v>
+        <v>0.717</v>
       </c>
       <c r="E13" s="3">
         <v>0.701</v>
@@ -1309,10 +1309,10 @@
         <v>0.604</v>
       </c>
       <c r="C14" s="2">
-        <v>0.553</v>
+        <v>0.534</v>
       </c>
       <c r="D14" s="2">
-        <v>0.653</v>
+        <v>0.697</v>
       </c>
       <c r="E14" s="3">
         <v>0.665</v>
@@ -1326,10 +1326,10 @@
         <v>0.811</v>
       </c>
       <c r="C15" s="2">
-        <v>0.603</v>
+        <v>0.824</v>
       </c>
       <c r="D15" s="2">
-        <v>0.826</v>
+        <v>0.821</v>
       </c>
       <c r="E15" s="3">
         <v>0.8</v>
@@ -1343,10 +1343,10 @@
         <v>0.569</v>
       </c>
       <c r="C16" s="2">
-        <v>0.654</v>
+        <v>0.626</v>
       </c>
       <c r="D16" s="2">
-        <v>0.666</v>
+        <v>0.584</v>
       </c>
       <c r="E16" s="3">
         <v>0.611</v>
@@ -1360,10 +1360,10 @@
         <v>0.82</v>
       </c>
       <c r="C17" s="2">
-        <v>0.619</v>
+        <v>0.819</v>
       </c>
       <c r="D17" s="2">
-        <v>0.847</v>
+        <v>0.823</v>
       </c>
       <c r="E17" s="3">
         <v>0.822</v>
@@ -1377,10 +1377,10 @@
         <v>0.617</v>
       </c>
       <c r="C18" s="2">
-        <v>0.627</v>
+        <v>0.66</v>
       </c>
       <c r="D18" s="2">
-        <v>0.695</v>
+        <v>0.641</v>
       </c>
       <c r="E18" s="3">
         <v>0.639</v>
@@ -1394,10 +1394,10 @@
         <v>0.519</v>
       </c>
       <c r="C19" s="2">
-        <v>0.658</v>
+        <v>0.592</v>
       </c>
       <c r="D19" s="2">
-        <v>0.654</v>
+        <v>0.598</v>
       </c>
       <c r="E19" s="3">
         <v>0.595</v>
@@ -1411,10 +1411,10 @@
         <v>0.651</v>
       </c>
       <c r="C20" s="2">
-        <v>0.619</v>
+        <v>0.682</v>
       </c>
       <c r="D20" s="2">
-        <v>0.702</v>
+        <v>0.656</v>
       </c>
       <c r="E20" s="3">
         <v>0.661</v>
@@ -1428,10 +1428,10 @@
         <v>0.654</v>
       </c>
       <c r="C21" s="2">
-        <v>0.646</v>
+        <v>0.611</v>
       </c>
       <c r="D21" s="2">
-        <v>0.686</v>
+        <v>0.716</v>
       </c>
       <c r="E21" s="3">
         <v>0.63</v>
